--- a/data/Hardware sales.xlsx
+++ b/data/Hardware sales.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tasnu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77D39C4-25AC-4CE5-9D40-27382ABDEB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD11702-18C1-4638-9599-D35C9E23FBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-7860" windowWidth="21840" windowHeight="38040" xr2:uid="{CA8D6F6F-AAF8-4A1D-B543-824E003EDCCA}"/>
+    <workbookView xWindow="19500" yWindow="1575" windowWidth="18900" windowHeight="20550" xr2:uid="{CA8D6F6F-AAF8-4A1D-B543-824E003EDCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -441,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10B0FA8-1594-444B-9D38-1B7499F6D405}">
   <dimension ref="A1:N1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N997" sqref="N997"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4490,7 +4489,7 @@
         <v>2019</v>
       </c>
       <c r="F202">
-        <v>3189090</v>
+        <v>318909</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
